--- a/Denco_Sol.xlsx
+++ b/Denco_Sol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Analytics\Projects\pyanalytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514167B9-F901-45F3-81B5-78112075C3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB248F7E-F114-4E82-BF31-F208D358DD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4245,8 +4245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4353,7 +4353,7 @@
   <dimension ref="A1:B1269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14524,7 +14524,7 @@
   <dimension ref="A1:B1724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28334,8 +28334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1724"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
